--- a/Task2/Results/GroupByPropertyID/2015/VV.xlsx
+++ b/Task2/Results/GroupByPropertyID/2015/VV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Property_id</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Stay_date</t>
   </si>
   <si>
-    <t>Channel</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -37,27 +34,9 @@
     <t>ADR</t>
   </si>
   <si>
-    <t>directChannelCount</t>
-  </si>
-  <si>
-    <t>travelAgentsChannelCount</t>
-  </si>
-  <si>
-    <t>corporatesChannelCount</t>
-  </si>
-  <si>
-    <t>OTAChannelCount</t>
-  </si>
-  <si>
     <t>VV</t>
   </si>
   <si>
-    <t>DIRECT</t>
-  </si>
-  <si>
-    <t>TRAVEL AGENTS</t>
-  </si>
-  <si>
     <t>Christmas Day</t>
   </si>
   <si>
@@ -82,9 +61,6 @@
     <t>Vasant Panchami</t>
   </si>
   <si>
-    <t>Sir Chhotu Ram Jayanti</t>
-  </si>
-  <si>
     <t>Statehood Day</t>
   </si>
   <si>
@@ -95,9 +71,6 @@
   </si>
   <si>
     <t>Rasa Purnima</t>
-  </si>
-  <si>
-    <t>Guru Nanak Birthday</t>
   </si>
   <si>
     <t>Kanakadasa Jayanthi</t>
@@ -474,13 +447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,741 +472,395 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>512</v>
+        <v>966</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>42363</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>60</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>672</v>
+        <v>1286</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>42364</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>59</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>928</v>
+        <v>1851</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>42020</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>93.33</v>
       </c>
       <c r="G4">
         <v>93.33</v>
       </c>
-      <c r="H4">
-        <v>93.33</v>
-      </c>
-      <c r="I4">
-        <v>49</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>1821</v>
+        <v>3096</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>42295</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>39</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>1920</v>
+        <v>3247</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>42025</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>93.33</v>
       </c>
       <c r="G6">
         <v>93.33</v>
       </c>
-      <c r="H6">
-        <v>93.33</v>
-      </c>
-      <c r="I6">
-        <v>37</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>2032</v>
+        <v>3526</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>42086</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>7500</v>
       </c>
       <c r="G7">
         <v>7500</v>
       </c>
-      <c r="H7">
-        <v>7500</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>65</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>2289</v>
+        <v>3986</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
         <v>42027</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>93.33</v>
       </c>
       <c r="G8">
         <v>93.33</v>
       </c>
-      <c r="H8">
-        <v>93.33</v>
-      </c>
-      <c r="I8">
-        <v>48</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>2496</v>
+        <v>4303</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
         <v>42028</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>93.33</v>
       </c>
       <c r="G9">
-        <v>186.66</v>
-      </c>
-      <c r="H9">
-        <v>93.33</v>
-      </c>
-      <c r="I9">
-        <v>102</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>93.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>2497</v>
+        <v>4611</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>42028</v>
+        <v>42029</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>93.33</v>
       </c>
       <c r="G10">
-        <v>186.66</v>
-      </c>
-      <c r="H10">
-        <v>93.33</v>
-      </c>
-      <c r="I10">
-        <v>102</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>93.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>2795</v>
+        <v>5340</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>42029</v>
+        <v>42038</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>93.33</v>
-      </c>
-      <c r="H11">
-        <v>93.33</v>
-      </c>
-      <c r="I11">
-        <v>46</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>3145</v>
+        <v>9105</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>42038</v>
+        <v>42325</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>4390.23</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>38</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>4390.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>5239</v>
+        <v>9202</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
-        <v>42325</v>
+        <v>42333</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>4390.23</v>
       </c>
       <c r="G13">
         <v>4390.23</v>
       </c>
-      <c r="H13">
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>9450</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>42336</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>4390.23</v>
       </c>
-      <c r="I13">
-        <v>34</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1">
-        <v>5324</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2">
-        <v>42333</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
       <c r="G14">
-        <v>8780.459999999999</v>
-      </c>
-      <c r="H14">
         <v>4390.23</v>
       </c>
-      <c r="I14">
-        <v>82</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>5325</v>
+        <v>11958</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
-        <v>42333</v>
+        <v>42021</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>93.33</v>
       </c>
       <c r="G15">
-        <v>8780.459999999999</v>
-      </c>
-      <c r="H15">
-        <v>4390.23</v>
-      </c>
-      <c r="I15">
-        <v>82</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>93.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>5538</v>
+        <v>12150</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>42336</v>
+        <v>42030</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>93.33</v>
       </c>
       <c r="G16">
-        <v>4390.23</v>
-      </c>
-      <c r="H16">
-        <v>4390.23</v>
-      </c>
-      <c r="I16">
-        <v>35</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>93.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>6958</v>
+        <v>12450</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
-        <v>42021</v>
+        <v>42035</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>93.33</v>
-      </c>
-      <c r="H17">
-        <v>93.33</v>
-      </c>
-      <c r="I17">
-        <v>43</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>7036</v>
+        <v>12792</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>42030</v>
+        <v>42344</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>93.33</v>
-      </c>
-      <c r="H18">
-        <v>93.33</v>
-      </c>
-      <c r="I18">
-        <v>40</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
-        <v>7168</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2">
-        <v>42035</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>44</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
-        <v>7328</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2">
-        <v>42344</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>19</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
         <v>0</v>
       </c>
     </row>
